--- a/Stock-XLSX/Dividend-Stocks/LOW.xlsx
+++ b/Stock-XLSX/Dividend-Stocks/LOW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/Dividend-Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456A77F8-C2D2-49A6-A169-CC1C5C6A1687}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89B936DC-1F9A-4903-9992-FDFAEAEE9F5C}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3720" windowWidth="21600" windowHeight="11295" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -2618,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D69F2-57A8-4AF2-8759-F26D94DB8BCC}">
   <dimension ref="B3:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,7 +4643,10 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
+      <c r="T35" s="31">
+        <f>(Table2[[#This Row],[Div]]-N34)/N34</f>
+        <v>6.3291139240506319E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9624,7 +9627,7 @@
   </sheetPr>
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
